--- a/Test Case - 6/TC6Results_B.xlsx
+++ b/Test Case - 6/TC6Results_B.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Reductive" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>e1176752</author>
+  </authors>
+  <commentList>
+    <comment ref="AK5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>e1176752:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+code pulls the global level 0 and not building level 0.
+Building level 0: 44</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="244">
   <si>
     <t>7576acb8-e629-49a6-8c7e-76a0e644aeac</t>
   </si>
@@ -644,27 +679,15 @@
     <t xml:space="preserve"> 'Level 0']</t>
   </si>
   <si>
-    <t>8f438e63-3211-4c2c-9479-85039715b751</t>
-  </si>
-  <si>
-    <t>97f14729-e1fe-434a-a733-ee5dc1ad38f4</t>
-  </si>
-  <si>
     <t>8d4414f9-731b-449d-a1a3-876a9c7a0be6</t>
   </si>
   <si>
-    <t>8886a60f-d64e-4a2a-bd86-aa07977fd3a7</t>
-  </si>
-  <si>
     <t>e91caf0a-cb40-49d0-84e1-e6168f9f5cde</t>
   </si>
   <si>
     <t>6239cc70-32bb-4efd-ad2d-b75b4cdf837d</t>
   </si>
   <si>
-    <t>3654a7f1-dfb3-4355-b96f-0131470ee337</t>
-  </si>
-  <si>
     <t>5f8e5e68-9ffc-44b9-bace-a6803d0e162c</t>
   </si>
   <si>
@@ -714,13 +737,67 @@
   </si>
   <si>
     <t xml:space="preserve"> Values : [4.900000095367432</t>
+  </si>
+  <si>
+    <t>d2D</t>
+  </si>
+  <si>
+    <t>Dmin</t>
+  </si>
+  <si>
+    <t>MRF</t>
+  </si>
+  <si>
+    <t>1.2000000178813934</t>
+  </si>
+  <si>
+    <t>Eq3</t>
+  </si>
+  <si>
+    <t>Eq4</t>
+  </si>
+  <si>
+    <t>Eq5</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>W3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>W4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>W5</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>Hf</t>
+  </si>
+  <si>
+    <t>Level GUID</t>
+  </si>
+  <si>
+    <t>Level Min Width</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#####"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,6 +931,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1206,7 +1302,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1232,6 +1328,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1248,15 +1362,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1304,7 +1418,17 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="22">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1322,6 +1446,36 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1442,146 +1596,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1901,66 +1915,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T132"/>
+  <dimension ref="A1:Y118"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="9.140625" style="2"/>
     <col min="8" max="8" width="38.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="9" max="21" width="9.140625" style="2"/>
+    <col min="22" max="22" width="9.140625" style="9"/>
+    <col min="23" max="24" width="9.140625" style="2"/>
+    <col min="25" max="25" width="10.140625" style="2" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="11" t="s">
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="17" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="17" t="s">
         <v>143</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="P1" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="Q1" s="15" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+      <c r="R1" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y1" s="21" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
       <c r="B2" s="1" t="s">
         <v>147</v>
       </c>
@@ -1979,22 +2015,30 @@
       <c r="G2" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="10" t="s">
+      <c r="H2" s="18"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="O2" s="10" t="s">
+      <c r="O2" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="21"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2046,8 +2090,12 @@
       </c>
       <c r="S3"/>
       <c r="T3"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y3" s="22" t="str">
+        <f>VLOOKUP(R3,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>43.89999961853027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2099,8 +2147,12 @@
       </c>
       <c r="S4"/>
       <c r="T4"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y4" s="22" t="str">
+        <f>VLOOKUP(R4,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>43.89999961853027</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2152,8 +2204,12 @@
       </c>
       <c r="S5"/>
       <c r="T5"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y5" s="22" t="str">
+        <f>VLOOKUP(R5,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>43.89999961853027</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2205,8 +2261,12 @@
       </c>
       <c r="S6"/>
       <c r="T6"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y6" s="22" t="str">
+        <f>VLOOKUP(R6,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>43.89999961853027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2258,8 +2318,12 @@
       </c>
       <c r="S7"/>
       <c r="T7"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y7" s="22" t="str">
+        <f>VLOOKUP(R7,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>43.89999961853027</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2311,8 +2375,12 @@
       </c>
       <c r="S8"/>
       <c r="T8"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y8" s="22" t="str">
+        <f>VLOOKUP(R8,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>43.89999961853027</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2371,8 +2439,16 @@
       </c>
       <c r="S9"/>
       <c r="T9"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W9" s="2">
+        <f>SQRT((M9-B9)^2+(N9-C9)^2)^(-0.35)</f>
+        <v>1.0353390051308686</v>
+      </c>
+      <c r="Y9" s="22" t="str">
+        <f>VLOOKUP(R9,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>43.89999961853027</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2431,8 +2507,16 @@
       </c>
       <c r="S10"/>
       <c r="T10"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W10" s="9">
+        <f t="shared" ref="W10:W19" si="0">SQRT((M10-B10)^2+(N10-C10)^2)^(-0.35)</f>
+        <v>1.0375645421409079</v>
+      </c>
+      <c r="Y10" s="22" t="str">
+        <f>VLOOKUP(R10,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>43.89999961853027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2484,8 +2568,16 @@
       </c>
       <c r="S11"/>
       <c r="T11"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W11" s="9">
+        <f t="shared" si="0"/>
+        <v>0.53065035349912204</v>
+      </c>
+      <c r="Y11" s="22" t="str">
+        <f>VLOOKUP(R11,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>43.89999961853027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2537,8 +2629,19 @@
       </c>
       <c r="S12"/>
       <c r="T12"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W12" s="9">
+        <f t="shared" si="0"/>
+        <v>0.53104895399282526</v>
+      </c>
+      <c r="Y12" s="22" t="str">
+        <f>VLOOKUP(R12,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>43.89999961853027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
       <c r="I13" s="2">
         <v>13</v>
       </c>
@@ -2551,8 +2654,16 @@
       <c r="R13"/>
       <c r="S13"/>
       <c r="T13"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W13" s="9" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y13" s="22" t="e">
+        <f>VLOOKUP(R13,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2604,8 +2715,16 @@
       </c>
       <c r="S14"/>
       <c r="T14"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W14" s="9">
+        <f t="shared" si="0"/>
+        <v>0.6069436169463307</v>
+      </c>
+      <c r="Y14" s="22" t="str">
+        <f>VLOOKUP(R14,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>43.89999961853027</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2657,8 +2776,16 @@
       </c>
       <c r="S15"/>
       <c r="T15"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W15" s="9">
+        <f t="shared" si="0"/>
+        <v>0.35310713055034892</v>
+      </c>
+      <c r="Y15" s="22" t="e">
+        <f>VLOOKUP(R15,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2710,8 +2837,16 @@
       </c>
       <c r="S16"/>
       <c r="T16"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W16" s="9">
+        <f t="shared" si="0"/>
+        <v>0.41942751434704123</v>
+      </c>
+      <c r="Y16" s="22" t="e">
+        <f>VLOOKUP(R16,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2763,8 +2898,16 @@
       </c>
       <c r="S17"/>
       <c r="T17"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W17" s="9">
+        <f t="shared" si="0"/>
+        <v>0.53065035349912204</v>
+      </c>
+      <c r="Y17" s="22" t="str">
+        <f>VLOOKUP(R17,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>20.700000762939446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2817,8 +2960,16 @@
       </c>
       <c r="S18"/>
       <c r="T18"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W18" s="9">
+        <f t="shared" si="0"/>
+        <v>0.47864874911678923</v>
+      </c>
+      <c r="Y18" s="22" t="str">
+        <f>VLOOKUP(R18,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>20.700000762939446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2864,15 +3015,23 @@
       <c r="O19" s="7">
         <v>22.9</v>
       </c>
-      <c r="P19" s="7"/>
+      <c r="P19" s="9"/>
       <c r="Q19"/>
       <c r="R19" t="s">
         <v>14</v>
       </c>
       <c r="S19"/>
       <c r="T19"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W19" s="9">
+        <f t="shared" si="0"/>
+        <v>0.40286395428633087</v>
+      </c>
+      <c r="Y19" s="22" t="e">
+        <f>VLOOKUP(R19,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2909,30 +3068,46 @@
       <c r="L20" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="9">
         <v>12.2</v>
       </c>
-      <c r="N20" s="7">
+      <c r="N20" s="9">
         <v>47.2</v>
       </c>
-      <c r="O20" s="7">
+      <c r="O20" s="9">
         <v>22.9</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="9">
+        <f>V20-(W20*(V20-1)/X20)</f>
+        <v>1.0657144053899843</v>
+      </c>
+      <c r="Q20" t="b">
+        <f>IF(AND(J20&lt;P20*1.03,J20&gt;P20*0.93),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="R20" t="s">
+        <v>12</v>
+      </c>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="V20" s="9">
         <f>0.9*((O20-D20)^0.51)*((SQRT((M20-B20)^2+(N20-C20)^2)^(-0.35)))</f>
         <v>1.3542736029057172</v>
       </c>
-      <c r="Q20" t="b">
-        <f>IF(AND(J20&lt;P20*1.03,J20&gt;P20*0.93),TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="R20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S20"/>
-      <c r="T20"/>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="W20" s="9">
+        <f>SQRT((M20-B20)^2+(N20-C20)^2)</f>
+        <v>17.041713528867927</v>
+      </c>
+      <c r="X20" s="2">
+        <f>(3.8*(D20^0.78)*(Y20^0.28))/2</f>
+        <v>20.922671339318406</v>
+      </c>
+      <c r="Y20" s="22" t="str">
+        <f>VLOOKUP(R20,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>20.700000762939446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2984,8 +3159,9 @@
       </c>
       <c r="S21"/>
       <c r="T21"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y21" s="23"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -3037,8 +3213,9 @@
       </c>
       <c r="S22"/>
       <c r="T22"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y22" s="23"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -3087,8 +3264,9 @@
       </c>
       <c r="S23"/>
       <c r="T23"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y23" s="23"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -3137,8 +3315,9 @@
       </c>
       <c r="S24"/>
       <c r="T24"/>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y24" s="23"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -3187,8 +3366,9 @@
       </c>
       <c r="S25"/>
       <c r="T25"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y25" s="23"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -3237,8 +3417,9 @@
       </c>
       <c r="S26"/>
       <c r="T26"/>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y26" s="23"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -3287,8 +3468,9 @@
       </c>
       <c r="S27"/>
       <c r="T27"/>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y27" s="23"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -3340,8 +3522,9 @@
       </c>
       <c r="S28"/>
       <c r="T28"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y28" s="23"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -3393,8 +3576,9 @@
       </c>
       <c r="S29"/>
       <c r="T29"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y29" s="23"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -3446,8 +3630,9 @@
       </c>
       <c r="S30"/>
       <c r="T30"/>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y30" s="23"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -3496,8 +3681,9 @@
       </c>
       <c r="S31"/>
       <c r="T31"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y31" s="23"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -3549,8 +3735,9 @@
       </c>
       <c r="S32"/>
       <c r="T32"/>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y32" s="23"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -3602,8 +3789,9 @@
       </c>
       <c r="S33"/>
       <c r="T33"/>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y33" s="23"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -3655,8 +3843,9 @@
       </c>
       <c r="S34"/>
       <c r="T34"/>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y34" s="23"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -3708,8 +3897,9 @@
       </c>
       <c r="S35"/>
       <c r="T35"/>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y35" s="23"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -3761,8 +3951,9 @@
       </c>
       <c r="S36"/>
       <c r="T36"/>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y36" s="23"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -3814,8 +4005,9 @@
       </c>
       <c r="S37"/>
       <c r="T37"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y37" s="23"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -3855,8 +4047,9 @@
       </c>
       <c r="S38"/>
       <c r="T38"/>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y38" s="23"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -3905,8 +4098,9 @@
       </c>
       <c r="S39"/>
       <c r="T39"/>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y39" s="23"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -3955,8 +4149,9 @@
       </c>
       <c r="S40"/>
       <c r="T40"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y40" s="23"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -4005,8 +4200,9 @@
       </c>
       <c r="S41"/>
       <c r="T41"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y41" s="23"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -4055,8 +4251,9 @@
       </c>
       <c r="S42"/>
       <c r="T42"/>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y42" s="23"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -4105,8 +4302,9 @@
       </c>
       <c r="S43"/>
       <c r="T43"/>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y43" s="23"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -4155,8 +4353,9 @@
       </c>
       <c r="S44"/>
       <c r="T44"/>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y44" s="23"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -4205,8 +4404,9 @@
       </c>
       <c r="S45"/>
       <c r="T45"/>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y45" s="23"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -4255,8 +4455,9 @@
       </c>
       <c r="S46"/>
       <c r="T46"/>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y46" s="23"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -4305,8 +4506,9 @@
       </c>
       <c r="S47"/>
       <c r="T47"/>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y47" s="23"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -4355,8 +4557,9 @@
       </c>
       <c r="S48"/>
       <c r="T48"/>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y48" s="23"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -4405,8 +4608,9 @@
       </c>
       <c r="S49"/>
       <c r="T49"/>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y49" s="23"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
@@ -4455,8 +4659,9 @@
       </c>
       <c r="S50"/>
       <c r="T50"/>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y50" s="23"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -4505,8 +4710,9 @@
       </c>
       <c r="S51"/>
       <c r="T51"/>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y51" s="23"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>50</v>
       </c>
@@ -4558,8 +4764,9 @@
       </c>
       <c r="S52"/>
       <c r="T52"/>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y52" s="23"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>51</v>
       </c>
@@ -4608,8 +4815,9 @@
       </c>
       <c r="S53"/>
       <c r="T53"/>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y53" s="23"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>52</v>
       </c>
@@ -4651,8 +4859,9 @@
       </c>
       <c r="S54"/>
       <c r="T54"/>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y54" s="23"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>53</v>
       </c>
@@ -4660,7 +4869,7 @@
         <v>80.5</v>
       </c>
       <c r="C55" s="2">
-        <v>62.9</v>
+        <v>62.8</v>
       </c>
       <c r="D55" s="2">
         <v>16.8</v>
@@ -4675,7 +4884,7 @@
         <v>16.8</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>207</v>
+        <v>59</v>
       </c>
       <c r="J55" s="2">
         <v>1</v>
@@ -4692,16 +4901,17 @@
       </c>
       <c r="S55"/>
       <c r="T55"/>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y55" s="23"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2">
         <v>80.5</v>
       </c>
       <c r="C56" s="2">
-        <v>62.8</v>
+        <v>64.3</v>
       </c>
       <c r="D56" s="2">
         <v>16.8</v>
@@ -4710,13 +4920,13 @@
         <v>80.467200000000005</v>
       </c>
       <c r="F56" s="2">
-        <v>62.788800000000002</v>
+        <v>64.312799999999996</v>
       </c>
       <c r="G56" s="2">
         <v>16.8</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J56" s="2">
         <v>1</v>
@@ -4733,13 +4943,14 @@
       </c>
       <c r="S56"/>
       <c r="T56"/>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y56" s="23"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B57" s="2">
-        <v>80.5</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="C57" s="2">
         <v>64.3</v>
@@ -4748,7 +4959,7 @@
         <v>16.8</v>
       </c>
       <c r="E57" s="2">
-        <v>80.467200000000005</v>
+        <v>66.446399999999997</v>
       </c>
       <c r="F57" s="2">
         <v>64.312799999999996</v>
@@ -4757,7 +4968,7 @@
         <v>16.8</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J57" s="2">
         <v>1</v>
@@ -4767,47 +4978,57 @@
       </c>
       <c r="L57" s="2" t="b">
         <v>1</v>
+      </c>
+      <c r="M57" s="2">
+        <v>80.5</v>
+      </c>
+      <c r="N57" s="2">
+        <v>64.3</v>
+      </c>
+      <c r="O57" s="2">
+        <v>16.8</v>
       </c>
       <c r="Q57"/>
       <c r="R57" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="S57"/>
       <c r="T57"/>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y57" s="23"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B58" s="2">
-        <v>79.739000000000004</v>
+        <v>92</v>
       </c>
       <c r="C58" s="2">
-        <v>63.784999999999997</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="D58" s="2">
-        <v>16.8</v>
+        <v>6.1</v>
       </c>
       <c r="E58" s="2">
-        <v>80.467200000000005</v>
+        <v>92.049599999999998</v>
       </c>
       <c r="F58" s="2">
-        <v>64.312799999999996</v>
+        <v>78.638400000000004</v>
       </c>
       <c r="G58" s="2">
-        <v>16.8</v>
+        <v>6.1</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>208</v>
+        <v>63</v>
       </c>
       <c r="J58" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K58" s="2">
         <v>1</v>
       </c>
       <c r="L58" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" s="2">
         <v>80.5</v>
@@ -4818,39 +5039,38 @@
       <c r="O58" s="2">
         <v>16.8</v>
       </c>
-      <c r="Q58" t="b">
-        <v>1</v>
-      </c>
+      <c r="Q58"/>
       <c r="R58" t="s">
         <v>62</v>
       </c>
       <c r="S58"/>
       <c r="T58"/>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y58" s="23"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B59" s="2">
-        <v>66.400000000000006</v>
+        <v>96.3</v>
       </c>
       <c r="C59" s="2">
-        <v>64.3</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="D59" s="2">
-        <v>16.8</v>
+        <v>6.1</v>
       </c>
       <c r="E59" s="2">
-        <v>66.446399999999997</v>
+        <v>96.316800000000001</v>
       </c>
       <c r="F59" s="2">
-        <v>64.312799999999996</v>
+        <v>78.638400000000004</v>
       </c>
       <c r="G59" s="2">
-        <v>16.8</v>
+        <v>6.1</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J59" s="2">
         <v>1</v>
@@ -4876,31 +5096,32 @@
       </c>
       <c r="S59"/>
       <c r="T59"/>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y59" s="23"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B60" s="2">
-        <v>92</v>
+        <v>96.3</v>
       </c>
       <c r="C60" s="2">
-        <v>78.599999999999994</v>
+        <v>76.2</v>
       </c>
       <c r="D60" s="2">
         <v>6.1</v>
       </c>
       <c r="E60" s="2">
-        <v>92.049599999999998</v>
+        <v>96.316800000000001</v>
       </c>
       <c r="F60" s="2">
-        <v>78.638400000000004</v>
+        <v>76.2</v>
       </c>
       <c r="G60" s="2">
         <v>6.1</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="J60" s="2">
         <v>1</v>
@@ -4926,40 +5147,41 @@
       </c>
       <c r="S60"/>
       <c r="T60"/>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y60" s="23"/>
+    </row>
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B61" s="2">
-        <v>96.3</v>
+        <v>100.8</v>
       </c>
       <c r="C61" s="2">
-        <v>78.599999999999994</v>
+        <v>75.2</v>
       </c>
       <c r="D61" s="2">
         <v>6.1</v>
       </c>
       <c r="E61" s="2">
-        <v>96.316800000000001</v>
+        <v>102.7176</v>
       </c>
       <c r="F61" s="2">
-        <v>78.638400000000004</v>
+        <v>76.2</v>
       </c>
       <c r="G61" s="2">
         <v>6.1</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J61" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2">
         <v>1</v>
       </c>
       <c r="L61" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" s="2">
         <v>80.5</v>
@@ -4970,46 +5192,49 @@
       <c r="O61" s="2">
         <v>16.8</v>
       </c>
-      <c r="Q61"/>
+      <c r="Q61" t="b">
+        <v>1</v>
+      </c>
       <c r="R61" t="s">
         <v>62</v>
       </c>
       <c r="S61"/>
       <c r="T61"/>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y61" s="23"/>
+    </row>
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B62" s="2">
-        <v>96.3</v>
+        <v>100.8</v>
       </c>
       <c r="C62" s="2">
-        <v>76.8</v>
+        <v>71.7</v>
       </c>
       <c r="D62" s="2">
         <v>6.1</v>
       </c>
       <c r="E62" s="2">
-        <v>96.316800000000001</v>
+        <v>102.7176</v>
       </c>
       <c r="F62" s="2">
-        <v>76.2</v>
+        <v>70.7136</v>
       </c>
       <c r="G62" s="2">
         <v>6.1</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="J62" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K62" s="2">
         <v>1</v>
       </c>
       <c r="L62" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" s="2">
         <v>80.5</v>
@@ -5020,37 +5245,43 @@
       <c r="O62" s="2">
         <v>16.8</v>
       </c>
-      <c r="Q62"/>
+      <c r="Q62" t="b">
+        <v>1</v>
+      </c>
       <c r="R62" t="s">
         <v>62</v>
       </c>
       <c r="S62"/>
       <c r="T62"/>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y62" s="23"/>
+    </row>
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B63" s="2">
-        <v>96.3</v>
+        <v>98.8</v>
       </c>
       <c r="C63" s="2">
-        <v>76.2</v>
+        <v>70.8</v>
       </c>
       <c r="D63" s="2">
         <v>6.1</v>
       </c>
       <c r="E63" s="2">
-        <v>96.316800000000001</v>
+        <v>98.755200000000002</v>
       </c>
       <c r="F63" s="2">
-        <v>76.2</v>
+        <v>70.7136</v>
       </c>
       <c r="G63" s="2">
         <v>6.1</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>209</v>
+        <v>68</v>
+      </c>
+      <c r="I63" s="2">
+        <v>55</v>
       </c>
       <c r="J63" s="2">
         <v>1</v>
@@ -5072,44 +5303,48 @@
       </c>
       <c r="Q63"/>
       <c r="R63" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="S63"/>
       <c r="T63"/>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y63" s="23"/>
+    </row>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B64" s="2">
-        <v>100.8</v>
+        <v>98.8</v>
       </c>
       <c r="C64" s="2">
-        <v>75.2</v>
+        <v>73.2</v>
       </c>
       <c r="D64" s="2">
         <v>6.1</v>
       </c>
       <c r="E64" s="2">
-        <v>102.7176</v>
+        <v>98.755200000000002</v>
       </c>
       <c r="F64" s="2">
-        <v>76.2</v>
+        <v>73.152000000000001</v>
       </c>
       <c r="G64" s="2">
         <v>6.1</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
+      </c>
+      <c r="I64" s="2">
+        <v>70</v>
       </c>
       <c r="J64" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K64" s="2">
         <v>1</v>
       </c>
       <c r="L64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" s="2">
         <v>80.5</v>
@@ -5120,48 +5355,50 @@
       <c r="O64" s="2">
         <v>16.8</v>
       </c>
-      <c r="Q64" t="b">
-        <v>1</v>
-      </c>
+      <c r="Q64"/>
       <c r="R64" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="S64"/>
       <c r="T64"/>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y64" s="23"/>
+    </row>
+    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B65" s="2">
-        <v>100.8</v>
+        <v>92</v>
       </c>
       <c r="C65" s="2">
-        <v>71.7</v>
+        <v>73.2</v>
       </c>
       <c r="D65" s="2">
         <v>6.1</v>
       </c>
       <c r="E65" s="2">
-        <v>102.7176</v>
+        <v>92.049599999999998</v>
       </c>
       <c r="F65" s="2">
-        <v>70.7136</v>
+        <v>73.152000000000001</v>
       </c>
       <c r="G65" s="2">
         <v>6.1</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="I65" s="2">
+        <v>5</v>
       </c>
       <c r="J65" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K65" s="2">
         <v>1</v>
       </c>
       <c r="L65" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" s="2">
         <v>80.5</v>
@@ -5172,54 +5409,53 @@
       <c r="O65" s="2">
         <v>16.8</v>
       </c>
-      <c r="Q65" t="b">
-        <v>1</v>
-      </c>
+      <c r="Q65"/>
       <c r="R65" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="S65"/>
       <c r="T65"/>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y65" s="23"/>
+    </row>
+    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B66" s="2">
-        <v>98.8</v>
+        <v>60.7</v>
       </c>
       <c r="C66" s="2">
-        <v>70.8</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="D66" s="2">
-        <v>6.1</v>
+        <v>3.7</v>
       </c>
       <c r="E66" s="2">
-        <v>98.755200000000002</v>
+        <v>60.655200000000001</v>
       </c>
       <c r="F66" s="2">
-        <v>70.7136</v>
+        <v>70.103999999999999</v>
       </c>
       <c r="G66" s="2">
-        <v>6.1</v>
+        <v>3.7</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="I66" s="2">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J66" s="2">
-        <v>1</v>
+        <v>1.00693470975014</v>
       </c>
       <c r="K66" s="2">
-        <v>1</v>
+        <v>1.002654452</v>
       </c>
       <c r="L66" s="2" t="b">
         <v>1</v>
       </c>
       <c r="M66" s="2">
-        <v>80.5</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="N66" s="2">
         <v>64.3</v>
@@ -5233,87 +5469,83 @@
       </c>
       <c r="S66"/>
       <c r="T66"/>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y66" s="23"/>
+    </row>
+    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B67" s="2">
-        <v>98.8</v>
+        <v>55.8</v>
       </c>
       <c r="C67" s="2">
-        <v>73.2</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="D67" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="E67" s="2">
+        <v>55.778399999999998</v>
+      </c>
+      <c r="F67" s="2">
+        <v>70.103999999999999</v>
+      </c>
+      <c r="G67" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+      <c r="L67" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M67" s="2">
+        <v>52.1</v>
+      </c>
+      <c r="N67" s="2">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="O67" s="2">
         <v>6.1</v>
-      </c>
-      <c r="E67" s="2">
-        <v>98.755200000000002</v>
-      </c>
-      <c r="F67" s="2">
-        <v>73.152000000000001</v>
-      </c>
-      <c r="G67" s="2">
-        <v>6.1</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I67" s="2">
-        <v>70</v>
-      </c>
-      <c r="J67" s="2">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2">
-        <v>1</v>
-      </c>
-      <c r="L67" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M67" s="2">
-        <v>80.5</v>
-      </c>
-      <c r="N67" s="2">
-        <v>64.3</v>
-      </c>
-      <c r="O67" s="2">
-        <v>16.8</v>
       </c>
       <c r="Q67"/>
       <c r="R67" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="S67"/>
       <c r="T67"/>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y67" s="23"/>
+    </row>
+    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B68" s="2">
-        <v>92</v>
+        <v>55.8</v>
       </c>
       <c r="C68" s="2">
-        <v>73.2</v>
+        <v>60</v>
       </c>
       <c r="D68" s="2">
-        <v>6.1</v>
+        <v>3.7</v>
       </c>
       <c r="E68" s="2">
-        <v>92.049599999999998</v>
+        <v>55.778399999999998</v>
       </c>
       <c r="F68" s="2">
-        <v>73.152000000000001</v>
+        <v>60.0456</v>
       </c>
       <c r="G68" s="2">
-        <v>6.1</v>
+        <v>3.7</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I68" s="2">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="J68" s="2">
         <v>1</v>
@@ -5325,30 +5557,31 @@
         <v>1</v>
       </c>
       <c r="M68" s="2">
-        <v>80.5</v>
+        <v>58.8</v>
       </c>
       <c r="N68" s="2">
-        <v>64.3</v>
+        <v>57</v>
       </c>
       <c r="O68" s="2">
-        <v>16.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q68"/>
       <c r="R68" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="S68"/>
       <c r="T68"/>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y68" s="23"/>
+    </row>
+    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B69" s="2">
         <v>60.7</v>
       </c>
       <c r="C69" s="2">
-        <v>70.099999999999994</v>
+        <v>60</v>
       </c>
       <c r="D69" s="2">
         <v>3.7</v>
@@ -5357,66 +5590,64 @@
         <v>60.655200000000001</v>
       </c>
       <c r="F69" s="2">
-        <v>70.103999999999999</v>
+        <v>60.0456</v>
       </c>
       <c r="G69" s="2">
         <v>3.7</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I69" s="2">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="J69" s="2">
-        <v>1.00693470975014</v>
+        <v>1</v>
       </c>
       <c r="K69" s="2">
-        <v>1.002654452</v>
+        <v>1</v>
       </c>
       <c r="L69" s="2" t="b">
         <v>1</v>
       </c>
       <c r="M69" s="2">
-        <v>66.400000000000006</v>
+        <v>61.2</v>
       </c>
       <c r="N69" s="2">
-        <v>64.3</v>
+        <v>57</v>
       </c>
       <c r="O69" s="2">
-        <v>16.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="Q69"/>
       <c r="R69" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="S69"/>
       <c r="T69"/>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y69" s="23"/>
+    </row>
+    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B70" s="2">
-        <v>55.8</v>
+        <v>44.5</v>
       </c>
       <c r="C70" s="2">
         <v>70.099999999999994</v>
       </c>
       <c r="D70" s="2">
-        <v>3.7</v>
+        <v>6.1</v>
       </c>
       <c r="E70" s="2">
-        <v>55.778399999999998</v>
+        <v>44.500799999999998</v>
       </c>
       <c r="F70" s="2">
         <v>70.103999999999999</v>
       </c>
       <c r="G70" s="2">
-        <v>3.7</v>
+        <v>6.1</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J70" s="2">
         <v>1</v>
@@ -5428,13 +5659,13 @@
         <v>1</v>
       </c>
       <c r="M70" s="2">
-        <v>52.1</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="N70" s="2">
-        <v>67.400000000000006</v>
+        <v>64.3</v>
       </c>
       <c r="O70" s="2">
-        <v>6.1</v>
+        <v>16.8</v>
       </c>
       <c r="Q70"/>
       <c r="R70" t="s">
@@ -5442,190 +5673,200 @@
       </c>
       <c r="S70"/>
       <c r="T70"/>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y70" s="23"/>
+    </row>
+    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B71" s="2">
-        <v>55.8</v>
+        <v>45.4</v>
       </c>
       <c r="C71" s="2">
-        <v>60</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="D71" s="2">
-        <v>3.7</v>
+        <v>6.1</v>
       </c>
       <c r="E71" s="2">
-        <v>55.778399999999998</v>
+        <v>44.500799999999998</v>
       </c>
       <c r="F71" s="2">
-        <v>60.0456</v>
+        <v>67.360799999999998</v>
       </c>
       <c r="G71" s="2">
-        <v>3.7</v>
+        <v>6.1</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J71" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K71" s="2">
         <v>1</v>
       </c>
       <c r="L71" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71" s="2">
-        <v>58.8</v>
+        <v>47.4</v>
       </c>
       <c r="N71" s="2">
-        <v>57</v>
+        <v>50.6</v>
       </c>
       <c r="O71" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Q71"/>
+        <v>7.3</v>
+      </c>
+      <c r="Q71" t="b">
+        <v>1</v>
+      </c>
       <c r="R71" t="s">
         <v>76</v>
       </c>
       <c r="S71"/>
       <c r="T71"/>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y71" s="23"/>
+    </row>
+    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2">
-        <v>60.7</v>
+        <v>51.3</v>
       </c>
       <c r="C72" s="2">
-        <v>60</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="D72" s="2">
-        <v>3.7</v>
+        <v>6.1</v>
       </c>
       <c r="E72" s="2">
-        <v>60.655200000000001</v>
+        <v>52.120800000000003</v>
       </c>
       <c r="F72" s="2">
-        <v>60.0456</v>
+        <v>67.360799999999998</v>
       </c>
       <c r="G72" s="2">
-        <v>3.7</v>
+        <v>6.1</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J72" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="2">
         <v>1</v>
       </c>
       <c r="L72" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M72" s="2">
-        <v>61.2</v>
+        <v>47.4</v>
       </c>
       <c r="N72" s="2">
-        <v>57</v>
+        <v>50.6</v>
       </c>
       <c r="O72" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="Q72"/>
+        <v>7.3</v>
+      </c>
+      <c r="Q72" t="b">
+        <v>1</v>
+      </c>
       <c r="R72" t="s">
         <v>76</v>
       </c>
       <c r="S72"/>
       <c r="T72"/>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y72" s="23"/>
+    </row>
+    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B73" s="2">
-        <v>44.5</v>
+        <v>51.3</v>
       </c>
       <c r="C73" s="2">
-        <v>70.099999999999994</v>
+        <v>65.3</v>
       </c>
       <c r="D73" s="2">
         <v>6.1</v>
       </c>
       <c r="E73" s="2">
-        <v>44.500799999999998</v>
+        <v>52.120800000000003</v>
       </c>
       <c r="F73" s="2">
-        <v>70.103999999999999</v>
+        <v>64.312799999999996</v>
       </c>
       <c r="G73" s="2">
         <v>6.1</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J73" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="2">
         <v>1</v>
       </c>
       <c r="L73" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M73" s="2">
-        <v>66.400000000000006</v>
+        <v>39.9</v>
       </c>
       <c r="N73" s="2">
-        <v>64.3</v>
+        <v>50.6</v>
       </c>
       <c r="O73" s="2">
-        <v>16.8</v>
-      </c>
-      <c r="Q73"/>
+        <v>7.3</v>
+      </c>
+      <c r="Q73" t="b">
+        <v>1</v>
+      </c>
       <c r="R73" t="s">
         <v>76</v>
       </c>
       <c r="S73"/>
       <c r="T73"/>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y73" s="23"/>
+    </row>
+    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B74" s="2">
-        <v>45.4</v>
+        <v>46.6</v>
       </c>
       <c r="C74" s="2">
-        <v>66.400000000000006</v>
+        <v>64.3</v>
       </c>
       <c r="D74" s="2">
         <v>6.1</v>
       </c>
       <c r="E74" s="2">
-        <v>44.500799999999998</v>
+        <v>46.634399999999999</v>
       </c>
       <c r="F74" s="2">
-        <v>67.360799999999998</v>
+        <v>64.312799999999996</v>
       </c>
       <c r="G74" s="2">
         <v>6.1</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="2">
         <v>1</v>
       </c>
       <c r="L74" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M74" s="2">
         <v>47.4</v>
@@ -5636,48 +5877,47 @@
       <c r="O74" s="2">
         <v>7.3</v>
       </c>
-      <c r="Q74" t="b">
-        <v>1</v>
-      </c>
+      <c r="Q74"/>
       <c r="R74" t="s">
         <v>76</v>
       </c>
       <c r="S74"/>
       <c r="T74"/>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y74" s="23"/>
+    </row>
+    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B75" s="2">
-        <v>51.3</v>
+        <v>46.6</v>
       </c>
       <c r="C75" s="2">
-        <v>66.400000000000006</v>
+        <v>65.8</v>
       </c>
       <c r="D75" s="2">
         <v>6.1</v>
       </c>
       <c r="E75" s="2">
-        <v>52.120800000000003</v>
+        <v>46.634399999999999</v>
       </c>
       <c r="F75" s="2">
-        <v>67.360799999999998</v>
+        <v>65.836799999999997</v>
       </c>
       <c r="G75" s="2">
         <v>6.1</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J75" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K75" s="2">
         <v>1</v>
       </c>
       <c r="L75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" s="2">
         <v>47.4</v>
@@ -5688,48 +5928,47 @@
       <c r="O75" s="2">
         <v>7.3</v>
       </c>
-      <c r="Q75" t="b">
-        <v>1</v>
-      </c>
+      <c r="Q75"/>
       <c r="R75" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="S75"/>
       <c r="T75"/>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y75" s="23"/>
+    </row>
+    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B76" s="2">
-        <v>51.3</v>
+        <v>40.5</v>
       </c>
       <c r="C76" s="2">
-        <v>65.3</v>
+        <v>65.8</v>
       </c>
       <c r="D76" s="2">
         <v>6.1</v>
       </c>
       <c r="E76" s="2">
-        <v>52.120800000000003</v>
+        <v>40.538400000000003</v>
       </c>
       <c r="F76" s="2">
-        <v>64.312799999999996</v>
+        <v>65.836799999999997</v>
       </c>
       <c r="G76" s="2">
         <v>6.1</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="2">
         <v>1</v>
       </c>
       <c r="L76" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" s="2">
         <v>39.9</v>
@@ -5740,39 +5979,38 @@
       <c r="O76" s="2">
         <v>7.3</v>
       </c>
-      <c r="Q76" t="b">
-        <v>1</v>
-      </c>
+      <c r="Q76"/>
       <c r="R76" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="S76"/>
       <c r="T76"/>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y76" s="23"/>
+    </row>
+    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B77" s="2">
-        <v>46.6</v>
+        <v>40.5</v>
       </c>
       <c r="C77" s="2">
-        <v>64.3</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="D77" s="2">
         <v>6.1</v>
       </c>
       <c r="E77" s="2">
-        <v>46.634399999999999</v>
+        <v>40.538400000000003</v>
       </c>
       <c r="F77" s="2">
-        <v>64.312799999999996</v>
+        <v>70.103999999999999</v>
       </c>
       <c r="G77" s="2">
         <v>6.1</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J77" s="2">
         <v>1</v>
@@ -5784,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="M77" s="2">
-        <v>47.4</v>
+        <v>39.9</v>
       </c>
       <c r="N77" s="2">
         <v>50.6</v>
@@ -5794,35 +6032,36 @@
       </c>
       <c r="Q77"/>
       <c r="R77" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="S77"/>
       <c r="T77"/>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y77" s="23"/>
+    </row>
+    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B78" s="2">
-        <v>46.6</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C78" s="2">
-        <v>65.8</v>
+        <v>65.5</v>
       </c>
       <c r="D78" s="2">
         <v>6.1</v>
       </c>
       <c r="E78" s="2">
-        <v>46.634399999999999</v>
+        <v>37.185600000000001</v>
       </c>
       <c r="F78" s="2">
-        <v>65.836799999999997</v>
+        <v>65.531999999999996</v>
       </c>
       <c r="G78" s="2">
         <v>6.1</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="J78" s="2">
         <v>1</v>
@@ -5834,7 +6073,7 @@
         <v>1</v>
       </c>
       <c r="M78" s="2">
-        <v>47.4</v>
+        <v>39.9</v>
       </c>
       <c r="N78" s="2">
         <v>50.6</v>
@@ -5848,31 +6087,32 @@
       </c>
       <c r="S78"/>
       <c r="T78"/>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y78" s="23"/>
+    </row>
+    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B79" s="2">
-        <v>40.5</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="C79" s="2">
-        <v>65.8</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="D79" s="2">
         <v>6.1</v>
       </c>
       <c r="E79" s="2">
-        <v>40.538400000000003</v>
+        <v>36.2712</v>
       </c>
       <c r="F79" s="2">
-        <v>65.836799999999997</v>
+        <v>64.617599999999996</v>
       </c>
       <c r="G79" s="2">
         <v>6.1</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="J79" s="2">
         <v>1</v>
@@ -5884,7 +6124,7 @@
         <v>1</v>
       </c>
       <c r="M79" s="2">
-        <v>39.9</v>
+        <v>33.5</v>
       </c>
       <c r="N79" s="2">
         <v>50.6</v>
@@ -5898,31 +6138,32 @@
       </c>
       <c r="S79"/>
       <c r="T79"/>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y79" s="23"/>
+    </row>
+    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B80" s="2">
-        <v>40.5</v>
+        <v>32</v>
       </c>
       <c r="C80" s="2">
-        <v>70.099999999999994</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="D80" s="2">
         <v>6.1</v>
       </c>
       <c r="E80" s="2">
-        <v>40.538400000000003</v>
+        <v>32.003999999999998</v>
       </c>
       <c r="F80" s="2">
-        <v>70.103999999999999</v>
+        <v>64.617599999999996</v>
       </c>
       <c r="G80" s="2">
         <v>6.1</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J80" s="2">
         <v>1</v>
@@ -5934,7 +6175,7 @@
         <v>1</v>
       </c>
       <c r="M80" s="2">
-        <v>39.9</v>
+        <v>31.5</v>
       </c>
       <c r="N80" s="2">
         <v>50.6</v>
@@ -5948,13 +6189,14 @@
       </c>
       <c r="S80"/>
       <c r="T80"/>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y80" s="23"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B81" s="2">
-        <v>37.200000000000003</v>
+        <v>32</v>
       </c>
       <c r="C81" s="2">
         <v>65.5</v>
@@ -5963,7 +6205,7 @@
         <v>6.1</v>
       </c>
       <c r="E81" s="2">
-        <v>37.185600000000001</v>
+        <v>32.003999999999998</v>
       </c>
       <c r="F81" s="2">
         <v>65.531999999999996</v>
@@ -5972,7 +6214,7 @@
         <v>6.1</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="J81" s="2">
         <v>1</v>
@@ -5984,7 +6226,7 @@
         <v>1</v>
       </c>
       <c r="M81" s="2">
-        <v>39.9</v>
+        <v>31.5</v>
       </c>
       <c r="N81" s="2">
         <v>50.6</v>
@@ -5998,31 +6240,32 @@
       </c>
       <c r="S81"/>
       <c r="T81"/>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y81" s="23"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B82" s="2">
-        <v>36.299999999999997</v>
+        <v>26.5</v>
       </c>
       <c r="C82" s="2">
-        <v>64.599999999999994</v>
+        <v>65.5</v>
       </c>
       <c r="D82" s="2">
         <v>6.1</v>
       </c>
       <c r="E82" s="2">
-        <v>36.2712</v>
+        <v>26.517600000000002</v>
       </c>
       <c r="F82" s="2">
-        <v>64.617599999999996</v>
+        <v>65.531999999999996</v>
       </c>
       <c r="G82" s="2">
         <v>6.1</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
@@ -6034,7 +6277,7 @@
         <v>1</v>
       </c>
       <c r="M82" s="2">
-        <v>33.5</v>
+        <v>25.6</v>
       </c>
       <c r="N82" s="2">
         <v>50.6</v>
@@ -6048,31 +6291,32 @@
       </c>
       <c r="S82"/>
       <c r="T82"/>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y82" s="23"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>32</v>
+        <v>26.5</v>
       </c>
       <c r="C83" s="2">
-        <v>64.599999999999994</v>
+        <v>68</v>
       </c>
       <c r="D83" s="2">
         <v>6.1</v>
       </c>
       <c r="E83" s="2">
-        <v>32.003999999999998</v>
+        <v>26.517600000000002</v>
       </c>
       <c r="F83" s="2">
-        <v>64.617599999999996</v>
+        <v>67.970399999999998</v>
       </c>
       <c r="G83" s="2">
         <v>6.1</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="J83" s="2">
         <v>1</v>
@@ -6084,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="M83" s="2">
-        <v>31.5</v>
+        <v>25.6</v>
       </c>
       <c r="N83" s="2">
         <v>50.6</v>
@@ -6098,31 +6342,35 @@
       </c>
       <c r="S83"/>
       <c r="T83"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y83" s="23"/>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>32</v>
+        <v>30.2</v>
       </c>
       <c r="C84" s="2">
-        <v>65.5</v>
+        <v>68</v>
       </c>
       <c r="D84" s="2">
         <v>6.1</v>
       </c>
       <c r="E84" s="2">
-        <v>32.003999999999998</v>
+        <v>30.1752</v>
       </c>
       <c r="F84" s="2">
-        <v>65.531999999999996</v>
+        <v>67.970399999999998</v>
       </c>
       <c r="G84" s="2">
         <v>6.1</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+      <c r="I84" s="2">
+        <v>22</v>
       </c>
       <c r="J84" s="2">
         <v>1</v>
@@ -6134,7 +6382,7 @@
         <v>1</v>
       </c>
       <c r="M84" s="2">
-        <v>31.5</v>
+        <v>29.5</v>
       </c>
       <c r="N84" s="2">
         <v>50.6</v>
@@ -6144,35 +6392,39 @@
       </c>
       <c r="Q84"/>
       <c r="R84" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="S84"/>
       <c r="T84"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y84" s="23"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>26.5</v>
+        <v>30.2</v>
       </c>
       <c r="C85" s="2">
-        <v>65.5</v>
+        <v>66.8</v>
       </c>
       <c r="D85" s="2">
         <v>6.1</v>
       </c>
       <c r="E85" s="2">
-        <v>26.517600000000002</v>
+        <v>30.1752</v>
       </c>
       <c r="F85" s="2">
-        <v>65.531999999999996</v>
+        <v>66.751199999999997</v>
       </c>
       <c r="G85" s="2">
         <v>6.1</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
+      </c>
+      <c r="I85" s="2">
+        <v>22</v>
       </c>
       <c r="J85" s="2">
         <v>1</v>
@@ -6184,7 +6436,7 @@
         <v>1</v>
       </c>
       <c r="M85" s="2">
-        <v>25.6</v>
+        <v>29.5</v>
       </c>
       <c r="N85" s="2">
         <v>50.6</v>
@@ -6194,35 +6446,39 @@
       </c>
       <c r="Q85"/>
       <c r="R85" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="S85"/>
       <c r="T85"/>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y85" s="23"/>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>26.5</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="C86" s="2">
-        <v>68</v>
+        <v>66.8</v>
       </c>
       <c r="D86" s="2">
         <v>6.1</v>
       </c>
       <c r="E86" s="2">
-        <v>26.517600000000002</v>
+        <v>37.185600000000001</v>
       </c>
       <c r="F86" s="2">
-        <v>67.970399999999998</v>
+        <v>66.751199999999997</v>
       </c>
       <c r="G86" s="2">
         <v>6.1</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="I86" s="2">
+        <v>23</v>
       </c>
       <c r="J86" s="2">
         <v>1</v>
@@ -6234,7 +6490,7 @@
         <v>1</v>
       </c>
       <c r="M86" s="2">
-        <v>25.6</v>
+        <v>39.9</v>
       </c>
       <c r="N86" s="2">
         <v>50.6</v>
@@ -6244,38 +6500,39 @@
       </c>
       <c r="Q86"/>
       <c r="R86" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="S86"/>
       <c r="T86"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y86" s="23"/>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>30.2</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="C87" s="2">
-        <v>68</v>
+        <v>22.3</v>
       </c>
       <c r="D87" s="2">
         <v>6.1</v>
       </c>
       <c r="E87" s="2">
-        <v>30.1752</v>
+        <v>38.709600000000002</v>
       </c>
       <c r="F87" s="2">
-        <v>67.970399999999998</v>
+        <v>22.250399999999999</v>
       </c>
       <c r="G87" s="2">
         <v>6.1</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I87" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J87" s="2">
         <v>1</v>
@@ -6287,10 +6544,10 @@
         <v>1</v>
       </c>
       <c r="M87" s="2">
-        <v>29.5</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="N87" s="2">
-        <v>50.6</v>
+        <v>25.6</v>
       </c>
       <c r="O87" s="2">
         <v>7.3</v>
@@ -6301,34 +6558,35 @@
       </c>
       <c r="S87"/>
       <c r="T87"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y87" s="23"/>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>30.2</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="C88" s="2">
-        <v>66.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D88" s="2">
         <v>6.1</v>
       </c>
       <c r="E88" s="2">
-        <v>30.1752</v>
+        <v>38.709600000000002</v>
       </c>
       <c r="F88" s="2">
-        <v>66.751199999999997</v>
+        <v>17.0688</v>
       </c>
       <c r="G88" s="2">
         <v>6.1</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I88" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J88" s="2">
         <v>1</v>
@@ -6340,45 +6598,46 @@
         <v>1</v>
       </c>
       <c r="M88" s="2">
-        <v>29.5</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="N88" s="2">
-        <v>50.6</v>
+        <v>25.6</v>
       </c>
       <c r="O88" s="2">
         <v>7.3</v>
       </c>
       <c r="Q88"/>
       <c r="R88" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S88"/>
       <c r="T88"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y88" s="23"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B89" s="2">
-        <v>37.200000000000003</v>
+        <v>30.8</v>
       </c>
       <c r="C89" s="2">
-        <v>66.8</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="D89" s="2">
         <v>6.1</v>
       </c>
       <c r="E89" s="2">
-        <v>37.185600000000001</v>
+        <v>30.784800000000001</v>
       </c>
       <c r="F89" s="2">
-        <v>66.751199999999997</v>
+        <v>17.0688</v>
       </c>
       <c r="G89" s="2">
         <v>6.1</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="I89" s="2">
         <v>23</v>
@@ -6393,27 +6652,28 @@
         <v>1</v>
       </c>
       <c r="M89" s="2">
-        <v>39.9</v>
+        <v>31.4</v>
       </c>
       <c r="N89" s="2">
-        <v>50.6</v>
+        <v>25.6</v>
       </c>
       <c r="O89" s="2">
         <v>7.3</v>
       </c>
       <c r="Q89"/>
       <c r="R89" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S89"/>
       <c r="T89"/>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y89" s="23"/>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B90" s="2">
-        <v>38.700000000000003</v>
+        <v>30.8</v>
       </c>
       <c r="C90" s="2">
         <v>22.3</v>
@@ -6422,7 +6682,7 @@
         <v>6.1</v>
       </c>
       <c r="E90" s="2">
-        <v>38.709600000000002</v>
+        <v>30.784800000000001</v>
       </c>
       <c r="F90" s="2">
         <v>22.250399999999999</v>
@@ -6431,7 +6691,7 @@
         <v>6.1</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="I90" s="2">
         <v>23</v>
@@ -6446,7 +6706,7 @@
         <v>1</v>
       </c>
       <c r="M90" s="2">
-        <v>37.799999999999997</v>
+        <v>31.4</v>
       </c>
       <c r="N90" s="2">
         <v>25.6</v>
@@ -6456,35 +6716,36 @@
       </c>
       <c r="Q90"/>
       <c r="R90" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="S90"/>
       <c r="T90"/>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y90" s="23"/>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B91" s="2">
-        <v>38.700000000000003</v>
+        <v>29.9</v>
       </c>
       <c r="C91" s="2">
-        <v>17.100000000000001</v>
+        <v>24.1</v>
       </c>
       <c r="D91" s="2">
         <v>6.1</v>
       </c>
       <c r="E91" s="2">
-        <v>38.709600000000002</v>
+        <v>29.8704</v>
       </c>
       <c r="F91" s="2">
-        <v>17.0688</v>
+        <v>24.0792</v>
       </c>
       <c r="G91" s="2">
         <v>6.1</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="I91" s="2">
         <v>23</v>
@@ -6499,7 +6760,7 @@
         <v>1</v>
       </c>
       <c r="M91" s="2">
-        <v>37.799999999999997</v>
+        <v>31.4</v>
       </c>
       <c r="N91" s="2">
         <v>25.6</v>
@@ -6513,34 +6774,35 @@
       </c>
       <c r="S91"/>
       <c r="T91"/>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y91" s="23"/>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>30.8</v>
+        <v>29.9</v>
       </c>
       <c r="C92" s="2">
-        <v>17.100000000000001</v>
+        <v>19.5</v>
       </c>
       <c r="D92" s="2">
         <v>6.1</v>
       </c>
       <c r="E92" s="2">
-        <v>30.784800000000001</v>
+        <v>29.8704</v>
       </c>
       <c r="F92" s="2">
-        <v>17.0688</v>
+        <v>19.507200000000001</v>
       </c>
       <c r="G92" s="2">
         <v>6.1</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="I92" s="2">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="J92" s="2">
         <v>1</v>
@@ -6562,38 +6824,39 @@
       </c>
       <c r="Q92"/>
       <c r="R92" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="S92"/>
       <c r="T92"/>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y92" s="23"/>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B93" s="2">
-        <v>30.8</v>
+        <v>25.6</v>
       </c>
       <c r="C93" s="2">
-        <v>22.3</v>
+        <v>19.5</v>
       </c>
       <c r="D93" s="2">
         <v>6.1</v>
       </c>
       <c r="E93" s="2">
-        <v>30.784800000000001</v>
+        <v>25.603200000000001</v>
       </c>
       <c r="F93" s="2">
-        <v>22.250399999999999</v>
+        <v>19.507200000000001</v>
       </c>
       <c r="G93" s="2">
         <v>6.1</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="I93" s="2">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="J93" s="2">
         <v>1</v>
@@ -6615,17 +6878,18 @@
       </c>
       <c r="Q93"/>
       <c r="R93" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="S93"/>
       <c r="T93"/>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y93" s="23"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B94" s="2">
-        <v>29.9</v>
+        <v>25.6</v>
       </c>
       <c r="C94" s="2">
         <v>24.1</v>
@@ -6634,7 +6898,7 @@
         <v>6.1</v>
       </c>
       <c r="E94" s="2">
-        <v>29.8704</v>
+        <v>25.603200000000001</v>
       </c>
       <c r="F94" s="2">
         <v>24.0792</v>
@@ -6643,10 +6907,10 @@
         <v>6.1</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I94" s="2">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="J94" s="2">
         <v>1</v>
@@ -6668,56 +6932,57 @@
       </c>
       <c r="Q94"/>
       <c r="R94" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="S94"/>
       <c r="T94"/>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y94" s="23"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>29.9</v>
+        <v>53.9</v>
       </c>
       <c r="C95" s="2">
-        <v>19.5</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="D95" s="2">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="E95" s="2">
-        <v>29.8704</v>
+        <v>53.949599999999997</v>
       </c>
       <c r="F95" s="2">
-        <v>19.507200000000001</v>
+        <v>36.2712</v>
       </c>
       <c r="G95" s="2">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="I95" s="2">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J95" s="2">
-        <v>1</v>
+        <v>1.2322468640348001</v>
       </c>
       <c r="K95" s="2">
-        <v>1</v>
+        <v>1.209248152</v>
       </c>
       <c r="L95" s="2" t="b">
         <v>1</v>
       </c>
       <c r="M95" s="2">
-        <v>31.4</v>
+        <v>58.2</v>
       </c>
       <c r="N95" s="2">
-        <v>25.6</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="O95" s="2">
-        <v>7.3</v>
+        <v>13.6</v>
       </c>
       <c r="Q95"/>
       <c r="R95" t="s">
@@ -6725,122 +6990,169 @@
       </c>
       <c r="S95"/>
       <c r="T95"/>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y95" s="23"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>25.6</v>
+        <v>56.7</v>
       </c>
       <c r="C96" s="2">
-        <v>19.5</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="D96" s="2">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="E96" s="2">
-        <v>25.603200000000001</v>
+        <v>56.692799999999998</v>
       </c>
       <c r="F96" s="2">
-        <v>19.507200000000001</v>
+        <v>36.2712</v>
       </c>
       <c r="G96" s="2">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="I96" s="2">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="J96" s="2">
-        <v>1</v>
+        <v>1.7405206339808299</v>
       </c>
       <c r="K96" s="2">
-        <v>1</v>
+        <v>1.557929841</v>
       </c>
       <c r="L96" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="M96" s="2">
-        <v>31.4</v>
-      </c>
-      <c r="N96" s="2">
-        <v>25.6</v>
-      </c>
-      <c r="O96" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="Q96"/>
+        <v>0</v>
+      </c>
+      <c r="M96" s="8">
+        <v>58.2</v>
+      </c>
+      <c r="N96" s="8">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="O96" s="8">
+        <v>13.6</v>
+      </c>
+      <c r="P96" s="9">
+        <f>V96-(W96*(V96-1)/X96)</f>
+        <v>1.7052931243089835</v>
+      </c>
+      <c r="Q96" t="b">
+        <f>IF(AND(J96&lt;P96*1.03,J96&gt;P96*0.93),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
       <c r="R96" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="S96"/>
       <c r="T96"/>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V96" s="9">
+        <f>0.9*((O96-D96)^0.51)*((SQRT((M96-B96)^2+(N96-C96)^2)^(-0.35)))</f>
+        <v>1.8720894743027587</v>
+      </c>
+      <c r="W96" s="9">
+        <f>SQRT((M96-B96)^2+(N96-C96)^2)</f>
+        <v>1.8027756377319946</v>
+      </c>
+      <c r="X96" s="9">
+        <f>(3.8*(D96^0.78)*(Y96^0.28))/2</f>
+        <v>9.4257557689613076</v>
+      </c>
+      <c r="Y96" s="22" t="str">
+        <f>VLOOKUP(R96,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>1.2000000178813934</v>
+      </c>
+    </row>
+    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>25.6</v>
+        <v>56.7</v>
       </c>
       <c r="C97" s="2">
-        <v>24.1</v>
+        <v>30.2</v>
       </c>
       <c r="D97" s="2">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="E97" s="2">
-        <v>25.603200000000001</v>
+        <v>56.692799999999998</v>
       </c>
       <c r="F97" s="2">
-        <v>24.0792</v>
+        <v>30.1752</v>
       </c>
       <c r="G97" s="2">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I97" s="2">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="J97" s="2">
-        <v>1</v>
+        <v>1.5454725994184699</v>
       </c>
       <c r="K97" s="2">
-        <v>1</v>
+        <v>1.4997250150000001</v>
       </c>
       <c r="L97" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M97" s="2">
-        <v>31.4</v>
+        <v>59</v>
       </c>
       <c r="N97" s="2">
-        <v>25.6</v>
+        <v>29.4</v>
       </c>
       <c r="O97" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="Q97"/>
+        <v>13.6</v>
+      </c>
+      <c r="P97" s="9">
+        <f>V97-(W97*(V97-1)/X97)</f>
+        <v>1.5080916313007302</v>
+      </c>
+      <c r="Q97" t="b">
+        <f>IF(AND(J97&lt;P97*1.03,J97&gt;P97*0.93),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
       <c r="R97" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="S97"/>
       <c r="T97"/>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V97" s="9">
+        <f>0.9*((O97-D97)^0.51)*((SQRT((M97-B97)^2+(N97-C97)^2)^(-0.35)))</f>
+        <v>1.685084245861163</v>
+      </c>
+      <c r="W97" s="9">
+        <f>SQRT((M97-B97)^2+(N97-C97)^2)</f>
+        <v>2.4351591323771817</v>
+      </c>
+      <c r="X97" s="9">
+        <f>(3.8*(D97^0.78)*(Y97^0.28))/2</f>
+        <v>9.4257557689613076</v>
+      </c>
+      <c r="Y97" s="22" t="str">
+        <f>VLOOKUP(R97,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>1.2000000178813934</v>
+      </c>
+    </row>
+    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B98" s="2">
         <v>53.9</v>
       </c>
       <c r="C98" s="2">
-        <v>36.299999999999997</v>
+        <v>30.2</v>
       </c>
       <c r="D98" s="2">
         <v>7.3</v>
@@ -6849,22 +7161,22 @@
         <v>53.949599999999997</v>
       </c>
       <c r="F98" s="2">
-        <v>36.2712</v>
+        <v>30.1752</v>
       </c>
       <c r="G98" s="2">
         <v>7.3</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I98" s="2">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="J98" s="2">
-        <v>1.2322468640348001</v>
+        <v>1.19418657537205</v>
       </c>
       <c r="K98" s="2">
-        <v>1.209248152</v>
+        <v>1.1978948970000001</v>
       </c>
       <c r="L98" s="2" t="b">
         <v>1</v>
@@ -6873,200 +7185,187 @@
         <v>58.2</v>
       </c>
       <c r="N98" s="2">
-        <v>37.299999999999997</v>
+        <v>28</v>
       </c>
       <c r="O98" s="2">
         <v>13.6</v>
       </c>
       <c r="Q98"/>
       <c r="R98" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="S98"/>
       <c r="T98"/>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y98" s="23"/>
+    </row>
+    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B99" s="2">
-        <v>56.7</v>
+        <v>74.7</v>
       </c>
       <c r="C99" s="2">
-        <v>36.299999999999997</v>
+        <v>36.6</v>
       </c>
       <c r="D99" s="2">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="E99" s="2">
-        <v>56.692799999999998</v>
+        <v>74.676000000000002</v>
       </c>
       <c r="F99" s="2">
-        <v>36.2712</v>
+        <v>36.576000000000001</v>
       </c>
       <c r="G99" s="2">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I99" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J99" s="2">
-        <v>1.7405206339808299</v>
+        <v>1</v>
       </c>
       <c r="K99" s="2">
-        <v>1.557929841</v>
+        <v>1</v>
       </c>
       <c r="L99" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M99" s="8">
-        <v>58.2</v>
-      </c>
-      <c r="N99" s="8">
-        <v>37.299999999999997</v>
-      </c>
-      <c r="O99" s="8">
-        <v>13.6</v>
-      </c>
-      <c r="P99" s="8">
-        <f>0.9*((O99-D99)^0.51)*((SQRT((M99-B99)^2+(N99-C99)^2)^(-0.35)))</f>
-        <v>1.8720894743027587</v>
-      </c>
-      <c r="Q99" t="b">
-        <f>IF(AND(J99&lt;P99*1.03,J99&gt;P99*0.93),TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M99" s="2">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="N99" s="2">
+        <v>44.2</v>
+      </c>
+      <c r="O99" s="2">
+        <v>7.3</v>
+      </c>
+      <c r="Q99"/>
       <c r="R99" t="s">
         <v>111</v>
       </c>
       <c r="S99"/>
       <c r="T99"/>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y99" s="23"/>
+    </row>
+    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B100" s="2">
-        <v>56.7</v>
+        <v>73.5</v>
       </c>
       <c r="C100" s="2">
-        <v>30.2</v>
+        <v>36.6</v>
       </c>
       <c r="D100" s="2">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="E100" s="2">
-        <v>56.692799999999998</v>
+        <v>73.456800000000001</v>
       </c>
       <c r="F100" s="2">
-        <v>30.1752</v>
+        <v>36.576000000000001</v>
       </c>
       <c r="G100" s="2">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I100" s="2">
-        <v>102</v>
+        <v>46</v>
       </c>
       <c r="J100" s="2">
-        <v>1.5454725994184699</v>
+        <v>1</v>
       </c>
       <c r="K100" s="2">
-        <v>1.4997250150000001</v>
+        <v>1</v>
       </c>
       <c r="L100" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" s="2">
-        <v>59</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="N100" s="2">
-        <v>29.4</v>
+        <v>44.2</v>
       </c>
       <c r="O100" s="2">
-        <v>13.6</v>
-      </c>
-      <c r="P100" s="8">
-        <f>0.9*((O100-D100)^0.51)*((SQRT((M100-B100)^2+(N100-C100)^2)^(-0.35)))</f>
-        <v>1.685084245861163</v>
-      </c>
-      <c r="Q100" t="b">
-        <f>IF(AND(J100&lt;P100*1.03,J100&gt;P100*0.93),TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
+        <v>7.3</v>
+      </c>
+      <c r="Q100"/>
       <c r="R100" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="S100"/>
       <c r="T100"/>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y100" s="23"/>
+    </row>
+    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B101" s="2">
-        <v>53.9</v>
+        <v>73.5</v>
       </c>
       <c r="C101" s="2">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="D101" s="2">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="E101" s="2">
-        <v>53.949599999999997</v>
+        <v>73.456800000000001</v>
       </c>
       <c r="F101" s="2">
-        <v>30.1752</v>
+        <v>29.8704</v>
       </c>
       <c r="G101" s="2">
-        <v>7.3</v>
+        <v>5.8</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I101" s="2">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="J101" s="2">
-        <v>1.19418657537205</v>
+        <v>1</v>
       </c>
       <c r="K101" s="2">
-        <v>1.1978948970000001</v>
+        <v>1</v>
       </c>
       <c r="L101" s="2" t="b">
         <v>1</v>
       </c>
       <c r="M101" s="2">
-        <v>58.2</v>
+        <v>71.3</v>
       </c>
       <c r="N101" s="2">
-        <v>28</v>
+        <v>32.6</v>
       </c>
       <c r="O101" s="2">
-        <v>13.6</v>
+        <v>6.6</v>
       </c>
       <c r="Q101"/>
       <c r="R101" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="S101"/>
       <c r="T101"/>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y101" s="23"/>
+    </row>
+    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B102" s="2">
         <v>74.7</v>
       </c>
       <c r="C102" s="2">
-        <v>36.6</v>
+        <v>29.9</v>
       </c>
       <c r="D102" s="2">
         <v>5.8</v>
@@ -7075,16 +7374,13 @@
         <v>74.676000000000002</v>
       </c>
       <c r="F102" s="2">
-        <v>36.576000000000001</v>
+        <v>29.8704</v>
       </c>
       <c r="G102" s="2">
         <v>5.8</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I102" s="2">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J102" s="2">
         <v>1</v>
@@ -7096,98 +7392,122 @@
         <v>1</v>
       </c>
       <c r="M102" s="2">
-        <v>75.099999999999994</v>
+        <v>71.3</v>
       </c>
       <c r="N102" s="2">
-        <v>44.2</v>
+        <v>32.6</v>
       </c>
       <c r="O102" s="2">
-        <v>7.3</v>
+        <v>6.6</v>
       </c>
       <c r="Q102"/>
       <c r="R102" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="S102"/>
       <c r="T102"/>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y102" s="23"/>
+    </row>
+    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B103" s="2">
-        <v>73.5</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="C103" s="2">
-        <v>36.6</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D103" s="2">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="E103" s="2">
-        <v>73.456800000000001</v>
+        <v>66.141599999999997</v>
       </c>
       <c r="F103" s="2">
-        <v>36.576000000000001</v>
+        <v>33.832799999999999</v>
       </c>
       <c r="G103" s="2">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I103" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J103" s="2">
-        <v>1</v>
+        <v>1.1297222891657801</v>
       </c>
       <c r="K103" s="2">
-        <v>1</v>
+        <v>1.0468875390000001</v>
       </c>
       <c r="L103" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M103" s="2">
-        <v>73.099999999999994</v>
+        <v>60.7</v>
       </c>
       <c r="N103" s="2">
-        <v>44.2</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="O103" s="2">
-        <v>7.3</v>
-      </c>
-      <c r="Q103"/>
+        <v>13.6</v>
+      </c>
+      <c r="P103" s="9">
+        <f>V103-(W103*(V103-1)/X103)</f>
+        <v>1.1297222891657877</v>
+      </c>
+      <c r="Q103" t="b">
+        <f>IF(AND(J103&lt;P103*1.03,J103&gt;P103*0.93),TRUE,FALSE)</f>
+        <v>1</v>
+      </c>
       <c r="R103" t="s">
         <v>115</v>
       </c>
       <c r="S103"/>
       <c r="T103"/>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V103" s="9">
+        <f>0.9*((O103-D103)^0.51)*((SQRT((M103-B103)^2+(N103-C103)^2)^(-0.35)))</f>
+        <v>1.3435563335824141</v>
+      </c>
+      <c r="W103" s="9">
+        <f>SQRT((M103-B103)^2+(N103-C103)^2)</f>
+        <v>5.4230987451824912</v>
+      </c>
+      <c r="X103" s="9">
+        <f>(3.8*(D103^0.78)*(Y103^0.28))/2</f>
+        <v>8.7130182035944319</v>
+      </c>
+      <c r="Y103" s="22" t="str">
+        <f>VLOOKUP(R103,Levels!$A$21:$B$39,2,FALSE)</f>
+        <v>1.2000000178813934</v>
+      </c>
+    </row>
+    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B104" s="2">
-        <v>73.5</v>
+        <v>71.099999999999994</v>
       </c>
       <c r="C104" s="2">
-        <v>29.9</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="D104" s="2">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="E104" s="2">
-        <v>73.456800000000001</v>
+        <v>71.3232</v>
       </c>
       <c r="F104" s="2">
-        <v>29.8704</v>
+        <v>33.832799999999999</v>
       </c>
       <c r="G104" s="2">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J104" s="2">
         <v>1</v>
@@ -7199,45 +7519,46 @@
         <v>1</v>
       </c>
       <c r="M104" s="2">
-        <v>71.3</v>
+        <v>60.7</v>
       </c>
       <c r="N104" s="2">
-        <v>32.6</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="O104" s="2">
-        <v>6.6</v>
+        <v>13.6</v>
       </c>
       <c r="Q104"/>
       <c r="R104" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="S104"/>
       <c r="T104"/>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y104" s="23"/>
+    </row>
+    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B105" s="2">
-        <v>74.7</v>
+        <v>71.3</v>
       </c>
       <c r="C105" s="2">
-        <v>29.9</v>
+        <v>32.6</v>
       </c>
       <c r="D105" s="2">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="E105" s="2">
-        <v>74.676000000000002</v>
+        <v>71.3232</v>
       </c>
       <c r="F105" s="2">
-        <v>29.8704</v>
+        <v>32.613599999999998</v>
       </c>
       <c r="G105" s="2">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J105" s="2">
         <v>1</v>
@@ -7249,30 +7570,31 @@
         <v>1</v>
       </c>
       <c r="M105" s="2">
-        <v>71.3</v>
+        <v>60.7</v>
       </c>
       <c r="N105" s="2">
-        <v>32.6</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="O105" s="2">
-        <v>6.6</v>
+        <v>13.6</v>
       </c>
       <c r="Q105"/>
       <c r="R105" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="S105"/>
       <c r="T105"/>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y105" s="23"/>
+    </row>
+    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B106" s="2">
         <v>66.099999999999994</v>
       </c>
       <c r="C106" s="2">
-        <v>33.799999999999997</v>
+        <v>32.6</v>
       </c>
       <c r="D106" s="2">
         <v>6.6</v>
@@ -7281,22 +7603,22 @@
         <v>66.141599999999997</v>
       </c>
       <c r="F106" s="2">
-        <v>33.832799999999999</v>
+        <v>32.613599999999998</v>
       </c>
       <c r="G106" s="2">
         <v>6.6</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I106" s="2">
         <v>45</v>
       </c>
       <c r="J106" s="2">
-        <v>1.1297222891657801</v>
+        <v>1.12813537867128</v>
       </c>
       <c r="K106" s="2">
-        <v>1.0468875390000001</v>
+        <v>1.039701797</v>
       </c>
       <c r="L106" s="2" t="b">
         <v>0</v>
@@ -7310,44 +7632,59 @@
       <c r="O106" s="2">
         <v>13.6</v>
       </c>
-      <c r="P106" s="8">
-        <f>0.9*((O106-D106)^0.51)*((SQRT((M106-B106)^2+(N106-C106)^2)^(-0.35)))</f>
-        <v>1.3435563335824141</v>
+      <c r="P106" s="9">
+        <f>V106-(W106*(V106-1)/X106)</f>
+        <v>1.1281353786712809</v>
       </c>
       <c r="Q106" t="b">
         <f>IF(AND(J106&lt;P106*1.03,J106&gt;P106*0.93),TRUE,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R106" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="S106"/>
       <c r="T106"/>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V106" s="9">
+        <f>0.9*((O106-D106)^0.51)*((SQRT((M106-B106)^2+(N106-C106)^2)^(-0.35)))</f>
+        <v>1.3416467648064063</v>
+      </c>
+      <c r="W106" s="9">
+        <f>SQRT((M106-B106)^2+(N106-C106)^2)</f>
+        <v>5.4451813560247837</v>
+      </c>
+      <c r="X106" s="9">
+        <f>(3.8*(D106^0.78)*(Y106^0.28))/2</f>
+        <v>8.7130182035944319</v>
+      </c>
+      <c r="Y106" s="22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B107" s="2">
-        <v>71.099999999999994</v>
+        <v>44.5</v>
       </c>
       <c r="C107" s="2">
-        <v>33.799999999999997</v>
+        <v>4</v>
       </c>
       <c r="D107" s="2">
-        <v>6.6</v>
+        <v>22.9</v>
       </c>
       <c r="E107" s="2">
-        <v>71.3232</v>
+        <v>44.500799999999998</v>
       </c>
       <c r="F107" s="2">
-        <v>33.832799999999999</v>
+        <v>3.9624000000000001</v>
       </c>
       <c r="G107" s="2">
-        <v>6.6</v>
+        <v>22.9</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J107" s="2">
         <v>1</v>
@@ -7357,15 +7694,6 @@
       </c>
       <c r="L107" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="M107" s="2">
-        <v>60.7</v>
-      </c>
-      <c r="N107" s="2">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="O107" s="2">
-        <v>13.6</v>
       </c>
       <c r="Q107"/>
       <c r="R107" t="s">
@@ -7373,31 +7701,32 @@
       </c>
       <c r="S107"/>
       <c r="T107"/>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y107" s="23"/>
+    </row>
+    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B108" s="2">
-        <v>71.3</v>
+        <v>45.1</v>
       </c>
       <c r="C108" s="2">
-        <v>32.6</v>
+        <v>3.6880000000000002</v>
       </c>
       <c r="D108" s="2">
-        <v>6.6</v>
+        <v>22.9</v>
       </c>
       <c r="E108" s="2">
-        <v>71.3232</v>
+        <v>45.110399999999998</v>
       </c>
       <c r="F108" s="2">
-        <v>32.613599999999998</v>
+        <v>3.9624000000000001</v>
       </c>
       <c r="G108" s="2">
-        <v>6.6</v>
+        <v>22.9</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="J108" s="2">
         <v>1</v>
@@ -7407,89 +7736,66 @@
       </c>
       <c r="L108" s="2" t="b">
         <v>1</v>
-      </c>
-      <c r="M108" s="2">
-        <v>60.7</v>
-      </c>
-      <c r="N108" s="2">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="O108" s="2">
-        <v>13.6</v>
       </c>
       <c r="Q108"/>
       <c r="R108" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="S108"/>
       <c r="T108"/>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y108" s="23"/>
+    </row>
+    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B109" s="2">
-        <v>66.099999999999994</v>
+        <v>45.1</v>
       </c>
       <c r="C109" s="2">
-        <v>32.6</v>
+        <v>3.6880000000000002</v>
       </c>
       <c r="D109" s="2">
-        <v>6.6</v>
+        <v>22.9</v>
       </c>
       <c r="E109" s="2">
-        <v>66.141599999999997</v>
+        <v>45.110399999999998</v>
       </c>
       <c r="F109" s="2">
-        <v>32.613599999999998</v>
+        <v>3.3527999999999998</v>
       </c>
       <c r="G109" s="2">
-        <v>6.6</v>
+        <v>22.9</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>119</v>
+        <v>208</v>
       </c>
       <c r="J109" s="2">
-        <v>1.12813537867128</v>
+        <v>1</v>
       </c>
       <c r="K109" s="2">
-        <v>1.039701797</v>
+        <v>1</v>
       </c>
       <c r="L109" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M109" s="2">
-        <v>60.7</v>
-      </c>
-      <c r="N109" s="2">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="O109" s="2">
-        <v>13.6</v>
-      </c>
-      <c r="P109" s="8">
-        <f>0.9*((O109-D109)^0.51)*((SQRT((M109-B109)^2+(N109-C109)^2)^(-0.35)))</f>
-        <v>1.3416467648064063</v>
-      </c>
-      <c r="Q109" t="b">
-        <f>IF(AND(J109&lt;P109*1.03,J109&gt;P109*0.93),TRUE,FALSE)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q109"/>
       <c r="R109" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="S109"/>
       <c r="T109"/>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y109" s="23"/>
+    </row>
+    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B110" s="2">
         <v>44.5</v>
       </c>
       <c r="C110" s="2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="D110" s="2">
         <v>22.9</v>
@@ -7498,13 +7804,13 @@
         <v>44.500799999999998</v>
       </c>
       <c r="F110" s="2">
-        <v>3.9624000000000001</v>
+        <v>3.3527999999999998</v>
       </c>
       <c r="G110" s="2">
         <v>22.9</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>122</v>
+        <v>209</v>
       </c>
       <c r="J110" s="2">
         <v>1</v>
@@ -7517,76 +7823,78 @@
       </c>
       <c r="Q110"/>
       <c r="R110" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="S110"/>
       <c r="T110"/>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y110" s="23"/>
+    </row>
+    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B111" s="2">
-        <v>44.634999999999998</v>
+        <v>100.9</v>
       </c>
       <c r="C111" s="2">
-        <v>3.8530000000000002</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="D111" s="2">
-        <v>22.9</v>
+        <v>19.8</v>
       </c>
       <c r="E111" s="2">
-        <v>44.500799999999998</v>
+        <v>100.8888</v>
       </c>
       <c r="F111" s="2">
-        <v>3.9624000000000001</v>
+        <v>8.2295999999999996</v>
       </c>
       <c r="G111" s="2">
-        <v>22.9</v>
+        <v>19.8</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>210</v>
+        <v>127</v>
       </c>
       <c r="J111" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K111" s="2">
         <v>1</v>
       </c>
       <c r="L111" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q111"/>
       <c r="R111" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="S111"/>
       <c r="T111"/>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y111" s="23"/>
+    </row>
+    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B112" s="2">
-        <v>45.1</v>
+        <v>101.5</v>
       </c>
       <c r="C112" s="2">
-        <v>4</v>
+        <v>7.8579999999999997</v>
       </c>
       <c r="D112" s="2">
-        <v>22.9</v>
+        <v>19.8</v>
       </c>
       <c r="E112" s="2">
-        <v>45.110399999999998</v>
+        <v>101.4984</v>
       </c>
       <c r="F112" s="2">
-        <v>3.9624000000000001</v>
+        <v>8.2295999999999996</v>
       </c>
       <c r="G112" s="2">
-        <v>22.9</v>
+        <v>19.8</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>120</v>
+        <v>210</v>
       </c>
       <c r="J112" s="2">
         <v>1</v>
@@ -7597,34 +7905,29 @@
       <c r="L112" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Q112"/>
-      <c r="R112" t="s">
-        <v>125</v>
-      </c>
-      <c r="S112"/>
-      <c r="T112"/>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y112" s="23"/>
+    </row>
+    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B113" s="2">
-        <v>45.1</v>
+        <v>101.211</v>
       </c>
       <c r="C113" s="2">
-        <v>3.6880000000000002</v>
+        <v>7.6</v>
       </c>
       <c r="D113" s="2">
-        <v>22.9</v>
+        <v>19.8</v>
       </c>
       <c r="E113" s="2">
-        <v>45.110399999999998</v>
+        <v>101.4984</v>
       </c>
       <c r="F113" s="2">
-        <v>3.9624000000000001</v>
+        <v>7.62</v>
       </c>
       <c r="G113" s="2">
-        <v>22.9</v>
+        <v>19.8</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>211</v>
@@ -7638,37 +7941,32 @@
       <c r="L113" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Q113"/>
-      <c r="R113" t="s">
-        <v>125</v>
-      </c>
-      <c r="S113"/>
-      <c r="T113"/>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y113" s="23"/>
+    </row>
+    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B114" s="2">
-        <v>45.1</v>
+        <v>100.9</v>
       </c>
       <c r="C114" s="2">
-        <v>3.4</v>
+        <v>7.6</v>
       </c>
       <c r="D114" s="2">
-        <v>22.9</v>
+        <v>19.8</v>
       </c>
       <c r="E114" s="2">
-        <v>45.110399999999998</v>
+        <v>100.8888</v>
       </c>
       <c r="F114" s="2">
-        <v>3.3527999999999998</v>
+        <v>7.62</v>
       </c>
       <c r="G114" s="2">
-        <v>22.9</v>
+        <v>19.8</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="J114" s="2">
         <v>1</v>
@@ -7679,37 +7977,32 @@
       <c r="L114" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Q114"/>
-      <c r="R114" t="s">
-        <v>125</v>
-      </c>
-      <c r="S114"/>
-      <c r="T114"/>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y114" s="23"/>
+    </row>
+    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B115" s="2">
-        <v>45.1</v>
+        <v>12.2</v>
       </c>
       <c r="C115" s="2">
-        <v>3.6880000000000002</v>
+        <v>47.9</v>
       </c>
       <c r="D115" s="2">
         <v>22.9</v>
       </c>
       <c r="E115" s="2">
-        <v>45.110399999999998</v>
+        <v>12.192</v>
       </c>
       <c r="F115" s="2">
-        <v>3.3527999999999998</v>
+        <v>47.8536</v>
       </c>
       <c r="G115" s="2">
         <v>22.9</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="J115" s="2">
         <v>1</v>
@@ -7720,31 +8013,26 @@
       <c r="L115" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Q115"/>
-      <c r="R115" t="s">
-        <v>131</v>
-      </c>
-      <c r="S115"/>
-      <c r="T115"/>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Y115" s="23"/>
+    </row>
+    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B116" s="2">
-        <v>44.5</v>
+        <v>11.927</v>
       </c>
       <c r="C116" s="2">
-        <v>3.4</v>
+        <v>47.2</v>
       </c>
       <c r="D116" s="2">
         <v>22.9</v>
       </c>
       <c r="E116" s="2">
-        <v>44.500799999999998</v>
+        <v>12.192</v>
       </c>
       <c r="F116" s="2">
-        <v>3.3527999999999998</v>
+        <v>47.244</v>
       </c>
       <c r="G116" s="2">
         <v>22.9</v>
@@ -7761,78 +8049,66 @@
       <c r="L116" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Q116"/>
-      <c r="R116" t="s">
-        <v>131</v>
-      </c>
-      <c r="S116"/>
-      <c r="T116"/>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B117" s="2">
-        <v>44.936</v>
+        <v>11.6</v>
       </c>
       <c r="C117" s="2">
-        <v>3.5550000000000002</v>
+        <v>47.545999999999999</v>
       </c>
       <c r="D117" s="2">
         <v>22.9</v>
       </c>
       <c r="E117" s="2">
-        <v>44.500799999999998</v>
+        <v>11.5824</v>
       </c>
       <c r="F117" s="2">
-        <v>3.3527999999999998</v>
+        <v>47.244</v>
       </c>
       <c r="G117" s="2">
         <v>22.9</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>123</v>
+        <v>213</v>
       </c>
       <c r="J117" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K117" s="2">
         <v>1</v>
       </c>
       <c r="L117" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q117"/>
-      <c r="R117" t="s">
-        <v>131</v>
-      </c>
-      <c r="S117"/>
-      <c r="T117"/>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="B118" s="2">
-        <v>100.9</v>
+        <v>11.6</v>
       </c>
       <c r="C118" s="2">
-        <v>8.1999999999999993</v>
+        <v>47.9</v>
       </c>
       <c r="D118" s="2">
-        <v>19.8</v>
+        <v>22.9</v>
       </c>
       <c r="E118" s="2">
-        <v>100.8888</v>
+        <v>11.5824</v>
       </c>
       <c r="F118" s="2">
-        <v>8.2295999999999996</v>
+        <v>47.8536</v>
       </c>
       <c r="G118" s="2">
-        <v>19.8</v>
+        <v>22.9</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="J118" s="2">
         <v>1</v>
@@ -7843,505 +8119,20 @@
       <c r="L118" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="Q118"/>
-      <c r="R118" t="s">
-        <v>131</v>
-      </c>
-      <c r="S118"/>
-      <c r="T118"/>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>109</v>
-      </c>
-      <c r="B119" s="2">
-        <v>101.065</v>
-      </c>
-      <c r="C119" s="2">
-        <v>7.782</v>
-      </c>
-      <c r="D119" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="E119" s="2">
-        <v>100.8888</v>
-      </c>
-      <c r="F119" s="2">
-        <v>8.2295999999999996</v>
-      </c>
-      <c r="G119" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J119" s="2">
-        <v>0</v>
-      </c>
-      <c r="K119" s="2">
-        <v>1</v>
-      </c>
-      <c r="L119" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>110</v>
-      </c>
-      <c r="B120" s="2">
-        <v>101.5</v>
-      </c>
-      <c r="C120" s="2">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D120" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="E120" s="2">
-        <v>101.4984</v>
-      </c>
-      <c r="F120" s="2">
-        <v>8.2295999999999996</v>
-      </c>
-      <c r="G120" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="J120" s="2">
-        <v>1</v>
-      </c>
-      <c r="K120" s="2">
-        <v>1</v>
-      </c>
-      <c r="L120" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>110</v>
-      </c>
-      <c r="B121" s="2">
-        <v>101.5</v>
-      </c>
-      <c r="C121" s="2">
-        <v>7.8579999999999997</v>
-      </c>
-      <c r="D121" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="E121" s="2">
-        <v>101.4984</v>
-      </c>
-      <c r="F121" s="2">
-        <v>8.2295999999999996</v>
-      </c>
-      <c r="G121" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="J121" s="2">
-        <v>1</v>
-      </c>
-      <c r="K121" s="2">
-        <v>1</v>
-      </c>
-      <c r="L121" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>111</v>
-      </c>
-      <c r="B122" s="2">
-        <v>101.5</v>
-      </c>
-      <c r="C122" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="D122" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="E122" s="2">
-        <v>101.4984</v>
-      </c>
-      <c r="F122" s="2">
-        <v>7.62</v>
-      </c>
-      <c r="G122" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="J122" s="2">
-        <v>1</v>
-      </c>
-      <c r="K122" s="2">
-        <v>1</v>
-      </c>
-      <c r="L122" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>111</v>
-      </c>
-      <c r="B123" s="2">
-        <v>101.211</v>
-      </c>
-      <c r="C123" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="D123" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="E123" s="2">
-        <v>101.4984</v>
-      </c>
-      <c r="F123" s="2">
-        <v>7.62</v>
-      </c>
-      <c r="G123" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J123" s="2">
-        <v>1</v>
-      </c>
-      <c r="K123" s="2">
-        <v>1</v>
-      </c>
-      <c r="L123" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>112</v>
-      </c>
-      <c r="B124" s="2">
-        <v>100.9</v>
-      </c>
-      <c r="C124" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="D124" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="E124" s="2">
-        <v>100.8888</v>
-      </c>
-      <c r="F124" s="2">
-        <v>7.62</v>
-      </c>
-      <c r="G124" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="J124" s="2">
-        <v>1</v>
-      </c>
-      <c r="K124" s="2">
-        <v>1</v>
-      </c>
-      <c r="L124" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>112</v>
-      </c>
-      <c r="B125" s="2">
-        <v>101.065</v>
-      </c>
-      <c r="C125" s="2">
-        <v>7.782</v>
-      </c>
-      <c r="D125" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="E125" s="2">
-        <v>100.8888</v>
-      </c>
-      <c r="F125" s="2">
-        <v>7.62</v>
-      </c>
-      <c r="G125" s="2">
-        <v>19.8</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="J125" s="2">
-        <v>0</v>
-      </c>
-      <c r="K125" s="2">
-        <v>1</v>
-      </c>
-      <c r="L125" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>113</v>
-      </c>
-      <c r="B126" s="2">
-        <v>12.2</v>
-      </c>
-      <c r="C126" s="2">
-        <v>47.9</v>
-      </c>
-      <c r="D126" s="2">
-        <v>22.9</v>
-      </c>
-      <c r="E126" s="2">
-        <v>12.192</v>
-      </c>
-      <c r="F126" s="2">
-        <v>47.8536</v>
-      </c>
-      <c r="G126" s="2">
-        <v>22.9</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J126" s="2">
-        <v>1</v>
-      </c>
-      <c r="K126" s="2">
-        <v>1</v>
-      </c>
-      <c r="L126" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <v>113</v>
-      </c>
-      <c r="B127" s="2">
-        <v>11.927</v>
-      </c>
-      <c r="C127" s="2">
-        <v>47.2</v>
-      </c>
-      <c r="D127" s="2">
-        <v>22.9</v>
-      </c>
-      <c r="E127" s="2">
-        <v>12.192</v>
-      </c>
-      <c r="F127" s="2">
-        <v>47.8536</v>
-      </c>
-      <c r="G127" s="2">
-        <v>22.9</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J127" s="2">
-        <v>1</v>
-      </c>
-      <c r="K127" s="2">
-        <v>1</v>
-      </c>
-      <c r="L127" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>114</v>
-      </c>
-      <c r="B128" s="2">
-        <v>12.2</v>
-      </c>
-      <c r="C128" s="2">
-        <v>47.2</v>
-      </c>
-      <c r="D128" s="2">
-        <v>22.9</v>
-      </c>
-      <c r="E128" s="2">
-        <v>12.192</v>
-      </c>
-      <c r="F128" s="2">
-        <v>47.244</v>
-      </c>
-      <c r="G128" s="2">
-        <v>22.9</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="J128" s="2">
-        <v>1</v>
-      </c>
-      <c r="K128" s="2">
-        <v>1</v>
-      </c>
-      <c r="L128" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <v>114</v>
-      </c>
-      <c r="B129" s="2">
-        <v>11.927</v>
-      </c>
-      <c r="C129" s="2">
-        <v>47.2</v>
-      </c>
-      <c r="D129" s="2">
-        <v>22.9</v>
-      </c>
-      <c r="E129" s="2">
-        <v>12.192</v>
-      </c>
-      <c r="F129" s="2">
-        <v>47.244</v>
-      </c>
-      <c r="G129" s="2">
-        <v>22.9</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="J129" s="2">
-        <v>1</v>
-      </c>
-      <c r="K129" s="2">
-        <v>1</v>
-      </c>
-      <c r="L129" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>115</v>
-      </c>
-      <c r="B130" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="C130" s="2">
-        <v>47.2</v>
-      </c>
-      <c r="D130" s="2">
-        <v>22.9</v>
-      </c>
-      <c r="E130" s="2">
-        <v>11.5824</v>
-      </c>
-      <c r="F130" s="2">
-        <v>47.244</v>
-      </c>
-      <c r="G130" s="2">
-        <v>22.9</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="J130" s="2">
-        <v>1</v>
-      </c>
-      <c r="K130" s="2">
-        <v>1</v>
-      </c>
-      <c r="L130" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <v>115</v>
-      </c>
-      <c r="B131" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="C131" s="2">
-        <v>47.545999999999999</v>
-      </c>
-      <c r="D131" s="2">
-        <v>22.9</v>
-      </c>
-      <c r="E131" s="2">
-        <v>11.5824</v>
-      </c>
-      <c r="F131" s="2">
-        <v>47.244</v>
-      </c>
-      <c r="G131" s="2">
-        <v>22.9</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="J131" s="2">
-        <v>1</v>
-      </c>
-      <c r="K131" s="2">
-        <v>1</v>
-      </c>
-      <c r="L131" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>116</v>
-      </c>
-      <c r="B132" s="2">
-        <v>11.6</v>
-      </c>
-      <c r="C132" s="2">
-        <v>47.9</v>
-      </c>
-      <c r="D132" s="2">
-        <v>22.9</v>
-      </c>
-      <c r="E132" s="2">
-        <v>11.5824</v>
-      </c>
-      <c r="F132" s="2">
-        <v>47.8536</v>
-      </c>
-      <c r="G132" s="2">
-        <v>22.9</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="J132" s="2">
-        <v>1</v>
-      </c>
-      <c r="K132" s="2">
-        <v>1</v>
-      </c>
-      <c r="L132" s="2" t="b">
-        <v>1</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="18">
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="R1:U2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
     <mergeCell ref="Q1:Q2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
@@ -8349,154 +8140,181 @@
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="P1:P2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
   </mergeCells>
-  <conditionalFormatting sqref="L3:L118">
-    <cfRule type="cellIs" dxfId="31" priority="21" operator="equal">
+  <conditionalFormatting sqref="Q3:Q8 Q98:Q102 Q104:Q105 Q11:Q19 Q21:Q95 Q107:Q111 L3:L118">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q3:Q8 Q110:Q118 Q101:Q105 Q107:Q108 Q11:Q19 Q21:Q98">
-    <cfRule type="cellIs" dxfId="29" priority="19" operator="equal">
+  <conditionalFormatting sqref="Q97">
+    <cfRule type="cellIs" dxfId="19" priority="17" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q100">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+  <conditionalFormatting sqref="Q103">
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q106">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q109">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q20">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="11" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q9">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q10">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q99">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="Q96">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U117"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="L98" sqref="L98"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AJ16" sqref="AJ16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="7" width="9.140625" style="4"/>
     <col min="8" max="8" width="38.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="4"/>
+    <col min="9" max="24" width="9.140625" style="4"/>
+    <col min="25" max="25" width="9.140625" style="10"/>
+    <col min="26" max="31" width="9.140625" style="4"/>
+    <col min="32" max="33" width="9.140625" style="10"/>
+    <col min="34" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="16" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15" t="s">
+      <c r="M1" s="20"/>
+      <c r="N1" s="20" t="s">
         <v>162</v>
       </c>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15" t="s">
+      <c r="O1" s="20"/>
+      <c r="P1" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15" t="s">
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="21" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
+      <c r="Y1" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC1" s="14"/>
+      <c r="AD1" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="AK1" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL1" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
       <c r="B2" s="2" t="s">
         <v>147</v>
       </c>
@@ -8515,21 +8333,23 @@
       <c r="G2" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="14"/>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H2" s="13"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
+      <c r="R2" s="20"/>
+      <c r="S2" s="20"/>
+      <c r="T2" s="21"/>
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -8593,7 +8413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -8657,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -8714,14 +8534,36 @@
         <v>0</v>
       </c>
       <c r="T5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Y5" s="10">
+        <f>Z5*AB5*AD5</f>
+        <v>2.0963908497806827</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="4">
+        <f>(0.55 * (AJ5^0.544) * (AK5^-0.14) * (0.38^-0.367) + 1)</f>
+        <v>2.0963908497806827</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ5" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AK5" s="12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -8784,8 +8626,10 @@
       <c r="U6" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AJ6" s="10"/>
+      <c r="AK6" s="10"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -8848,8 +8692,10 @@
       <c r="U7" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -8906,14 +8752,38 @@
         <v>0</v>
       </c>
       <c r="T8" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Y8" s="10">
+        <f>Z8*AB8*AD8</f>
+        <v>2.0963908497806827</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10">
+        <f>(0.55 * (AJ8^0.544) * (AK8^-0.14) * (0.38^-0.367) + 1)</f>
+        <v>2.0963908497806827</v>
+      </c>
+      <c r="AE8" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="AJ8" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AK8" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -8977,7 +8847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -9041,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -9105,7 +8975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -9169,7 +9039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -9233,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -9294,14 +9164,55 @@
         <v>0</v>
       </c>
       <c r="T14" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Y14" s="10">
+        <f>Z14*AB14*AD14</f>
+        <v>2.9899690016723364</v>
+      </c>
+      <c r="Z14" s="4">
+        <f>(0.43 * (AF14^0.8) * (AG14^-0.14) * (0.38^-0.57) + 1)</f>
+        <v>1.8852734185356104</v>
+      </c>
+      <c r="AA14" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB14" s="4">
+        <f>((0.1 * 0.5) + 1.2)</f>
+        <v>1.25</v>
+      </c>
+      <c r="AC14" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD14" s="4">
+        <f>(0.95 * ((AJ14/AK14)^0.57) * (2.718281828^(-0.55*((AL14/AK14)^1.33))) + 1)</f>
+        <v>1.2687683270874524</v>
+      </c>
+      <c r="AE14" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF14" s="10">
+        <f>G14-G13</f>
+        <v>2.3999999999999995</v>
+      </c>
+      <c r="AG14" s="10">
+        <v>44</v>
+      </c>
+      <c r="AJ14" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>44</v>
+      </c>
+      <c r="AL14" s="4">
+        <f>7.3-4.9</f>
+        <v>2.3999999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -9364,8 +9275,29 @@
       <c r="U15" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Z15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10">
+        <f>(0.43 * (AJ15^0.8) * (AK15^-0.14) * (0.38^-0.57) + 1)</f>
+        <v>3.3955996736042273</v>
+      </c>
+      <c r="AE15" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ15" s="4">
+        <v>7.3</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -9525,10 +9457,10 @@
         <v>3.2450268436160501</v>
       </c>
       <c r="K18" s="4">
-        <v>4.4735155170459597</v>
+        <v>4.4396829670349298</v>
       </c>
       <c r="L18" s="2">
-        <v>2.0457984572393402</v>
+        <v>2.0303263797751501</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>151</v>
@@ -10569,10 +10501,10 @@
         <v>3.2450268436160501</v>
       </c>
       <c r="K34" s="4">
-        <v>4.4735155170459597</v>
+        <v>4.4396829670349298</v>
       </c>
       <c r="L34" s="2">
-        <v>2.0457984572393402</v>
+        <v>2.0303263797751501</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>151</v>
@@ -10637,10 +10569,10 @@
         <v>3.2450268436160501</v>
       </c>
       <c r="K35" s="4">
-        <v>4.4735155170459597</v>
+        <v>4.4396829670349298</v>
       </c>
       <c r="L35" s="2">
-        <v>2.0457984572393402</v>
+        <v>2.0303263797751501</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>151</v>
@@ -15959,7 +15891,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="AB1:AC1"/>
+    <mergeCell ref="AD1:AE1"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:D1"/>
@@ -15975,39 +15910,41 @@
     <mergeCell ref="S1:S2"/>
   </mergeCells>
   <conditionalFormatting sqref="R3:R117">
-    <cfRule type="cellIs" dxfId="27" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S117">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:T117">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C9" sqref="A9:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16073,7 +16010,7 @@
         <v>174</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
         <v>175</v>
@@ -16090,7 +16027,7 @@
         <v>176</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C5" t="s">
         <v>177</v>
@@ -16107,7 +16044,7 @@
         <v>178</v>
       </c>
       <c r="B6" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C6" t="s">
         <v>179</v>
@@ -16124,7 +16061,7 @@
         <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
         <v>181</v>
@@ -16141,7 +16078,7 @@
         <v>182</v>
       </c>
       <c r="B8" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
         <v>183</v>
@@ -16158,7 +16095,7 @@
         <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C9" t="s">
         <v>185</v>
@@ -16175,7 +16112,7 @@
         <v>186</v>
       </c>
       <c r="B10" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C10" t="s">
         <v>187</v>
@@ -16209,7 +16146,7 @@
         <v>191</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C12" t="s">
         <v>192</v>
@@ -16226,7 +16163,7 @@
         <v>193</v>
       </c>
       <c r="B13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C13" t="s">
         <v>194</v>
@@ -16243,7 +16180,7 @@
         <v>195</v>
       </c>
       <c r="B14" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C14" t="s">
         <v>196</v>
@@ -16260,7 +16197,7 @@
         <v>197</v>
       </c>
       <c r="B15" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C15" t="s">
         <v>198</v>
@@ -16277,7 +16214,7 @@
         <v>199</v>
       </c>
       <c r="B16" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C16" t="s">
         <v>200</v>
@@ -16311,7 +16248,7 @@
         <v>203</v>
       </c>
       <c r="B18" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C18" t="s">
         <v>204</v>
@@ -16328,7 +16265,7 @@
         <v>205</v>
       </c>
       <c r="B19" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C19" t="s">
         <v>206</v>
@@ -16338,6 +16275,196 @@
       </c>
       <c r="H19">
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>MID(A1,8,LEN(A1)-8+1)</f>
+        <v>4679c28a-5867-405e-9f63-fe55c30ab43f</v>
+      </c>
+      <c r="B21" t="str">
+        <f>MID(B1,12,LEN(B1)-12+1)</f>
+        <v>0.6000000089406963</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" ref="A22:A39" si="0">MID(A2,8,LEN(A2)-8+1)</f>
+        <v>fa8091ca-3cd0-4d9a-9011-5c7f5f2b2fa4</v>
+      </c>
+      <c r="B22" t="str">
+        <f t="shared" ref="B22:B39" si="1">MID(B2,12,LEN(B2)-12+1)</f>
+        <v>0.6000000089406967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>4b556ca8-8a90-4042-9b65-927f42b2ce17</v>
+      </c>
+      <c r="B23" t="str">
+        <f t="shared" si="1"/>
+        <v>0.6000000089406967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>03d16210-1a6c-480f-b719-1849c4279231</v>
+      </c>
+      <c r="B24" t="str">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>dd2731c1-1e06-40a7-b18c-47fb7275c57a</v>
+      </c>
+      <c r="B25" t="str">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>840ed9c7-4a5b-4f29-b12d-c8ada9c43c8f</v>
+      </c>
+      <c r="B26" t="str">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>a813dc4b-baab-4aae-b358-16131b393553</v>
+      </c>
+      <c r="B27" t="str">
+        <f t="shared" si="1"/>
+        <v>2.799999952316284</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>26b2a22a-b341-4787-bc37-d3be8240d0e5</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" si="1"/>
+        <v>10.699999809265137</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>7fdc865a-864f-4192-8c8d-adfd816d4c29</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" si="1"/>
+        <v>20.700000762939446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>50c1f6cc-056d-4179-a809-3f47f7e8be9a</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" si="1"/>
+        <v>6.400000095367432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>eddc687c-ecee-4433-b46c-c77d6bd6fef3</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" si="1"/>
+        <v>1.2000000178813934</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>87c310eb-7b3a-4df3-a176-87d1980dc758</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" si="1"/>
+        <v>5.2366414070129395</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>be90f439-afbf-4175-b935-ebd8461da16a</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" si="1"/>
+        <v>3.0765583515167236</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>e5f5e21e-ef20-417e-9145-df0bfc0bab23</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" si="1"/>
+        <v>4.299999952316284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>d77ee8ef-6e37-44bf-8668-dc908248b575</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" si="1"/>
+        <v>5.199999809265137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f>MID(A16,8,LEN(A16)-8+1)</f>
+        <v>b8222979-a7ab-441a-84c8-be496bdf7f1c</v>
+      </c>
+      <c r="B36" t="str">
+        <f t="shared" si="1"/>
+        <v>6.568521499633789</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>3f8613b5-c508-478c-b0d9-b956f45bbaca</v>
+      </c>
+      <c r="B37" t="str">
+        <f t="shared" si="1"/>
+        <v>1.2000000178813934</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>7576acb8-e629-49a6-8c7e-76a0e644aeac</v>
+      </c>
+      <c r="B38" t="str">
+        <f t="shared" si="1"/>
+        <v>43.89999961853027</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>ae8fc955-2a3d-48bf-924d-cf1dd1da54dd</v>
+      </c>
+      <c r="B39" t="str">
+        <f t="shared" si="1"/>
+        <v>4.900000095367432</v>
       </c>
     </row>
   </sheetData>
